--- a/Similarity_Matching/Similarity_Matching/phrase_similarity.xlsx
+++ b/Similarity_Matching/Similarity_Matching/phrase_similarity.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -493,27 +493,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['Computational materials science', 'Computational Materials Science', 'computational materials science', 'Computational materials science', 'Computational Material Science']</t>
+          <t>['computational materials science', 'Computational Materials Science', 'Computational materials science', 'Computational Material Science']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E49517', 'http://demo.fiz-karlsruhe.de/matwerk/E42042', 'http://demo.fiz-karlsruhe.de/matwerk/E67431', 'http://www.wikidata.org/entity/Q85753722', 'http://demo.fiz-karlsruhe.de/matwerk/E71126']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E67431', 'http://demo.fiz-karlsruhe.de/matwerk/E42042', 'http://demo.fiz-karlsruhe.de/matwerk/E49517', 'http://demo.fiz-karlsruhe.de/matwerk/E71126']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['has work package', 'has expertise in', 'has funding project ', 'related participant project is', 'has related Project', 'has discipline', 'has parent organisation ', 'has related task area', 'has documentation']</t>
+          <t>['has work package', 'has expertise in', 'has funding project ', 'related participant project is', 'has related Project', 'has discipline', 'has parent organisation ']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/hasWorkPackage', 'http://purls.helmholtz-metadaten.de/mwo/hasExpertiseIn', 'http://nfdi.fiz-karlsruhe.de/ontology/fundingProject', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://purls.helmholtz-metadaten.de/mwo/hasDiscipline', 'http://nfdi.fiz-karlsruhe.de/ontology/parentOrganisation', 'http://purls.helmholtz-metadaten.de/mwo/relatedTaskArea', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation']</t>
+          <t>['https://nfdi.fiz-karlsruhe.de/ontology/example', 'http://purls.helmholtz-metadaten.de/mwo/description', 'http://nfdi.fiz-karlsruhe.de/ontology/programmingLanguage', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'https://schema.org/dateCreated', 'http://purl.org/dc/terms/isPartOf', 'http://purls.helmholtz-metadaten.de/mwo/usesMethod']</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['mwo:hasWorkPackage', 'mwo:hasExpertiseIn', 'nfdicore:fundingProject', 'mwo:relatedParticipantProject', 'nfdicore:relatedProject', 'mwo:hasDiscipline', 'nfdicore:parentOrganisation', 'mwo:relatedTaskArea', 'mwo:hasDocumentation', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:hasWorkPackage', 'mwo:hasExpertiseIn', 'nfdicore:fundingProject', 'mwo:relatedParticipantProject', 'nfdicore:relatedProject', 'mwo:hasDiscipline', 'nfdicore:parentOrganisation', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
     </row>
@@ -535,27 +535,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['Elemental Multiperspective Material Ontology (EMMO)', 'Peter', 'Essential Source of Schemas and Examples (ESSE)', 'R. S. Elliott and E. B. Tadmor, "Knowledgebase of Interatomic Models (KIM) Application Programming Interface (API)", OpenKIM (2011). doi:10.25950/ff8f563a', 'ruby']</t>
+          <t>['Elemental Multiperspective Material Ontology (EMMO)', 'Essential Source of Schemas and Examples (ESSE)', 'R. S. Elliott and E. B. Tadmor, "Knowledgebase of Interatomic Models (KIM) Application Programming Interface (API)", OpenKIM (2011). doi:10.25950/ff8f563a', 'ruby']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1126751', 'http://demo.fiz-karlsruhe.de/matwerk/E17291', 'http://demo.fiz-karlsruhe.de/matwerk/E1152404', 'http://demo.fiz-karlsruhe.de/matwerk/E962192', 'http://demo.fiz-karlsruhe.de/matwerk/E837572']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1126751', 'http://demo.fiz-karlsruhe.de/matwerk/E1152404', 'http://demo.fiz-karlsruhe.de/matwerk/E962192', 'http://demo.fiz-karlsruhe.de/matwerk/E837572']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['has related Project', 'related participant project is', 'has funding project ', 'has related resource', 'has expertise in', 'has documentation', 'has work package', 'has bibliographic citation', 'has parent organisation ']</t>
+          <t>['has related Project', 'related participant project is', 'has funding project ', 'has related resource', 'has expertise in', 'has documentation', 'has work package']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://nfdi.fiz-karlsruhe.de/ontology/fundingProject', 'http://purls.helmholtz-metadaten.de/mwo/hasRelatedResource', 'http://purls.helmholtz-metadaten.de/mwo/hasExpertiseIn', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'http://purls.helmholtz-metadaten.de/mwo/hasWorkPackage', 'http://purl.org/dc/terms/bibliographicCitation', 'http://nfdi.fiz-karlsruhe.de/ontology/parentOrganisation']</t>
+          <t>['https://schema.org/dateCreated', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://nfdi.fiz-karlsruhe.de/ontology/programmingLanguage', 'http://purls.helmholtz-metadaten.de/mwo/hasLecturer', 'http://purls.helmholtz-metadaten.de/mwo/description', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'https://nfdi.fiz-karlsruhe.de/ontology/example']</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['nfdicore:relatedProject', 'mwo:relatedParticipantProject', 'nfdicore:fundingProject', 'mwo:hasRelatedResource', 'mwo:hasExpertiseIn', 'mwo:hasDocumentation', 'mwo:hasWorkPackage', 'dcterms:bibliographicCitation', 'nfdicore:parentOrganisation', 'mwo:description', 'dcterms:description']</t>
+          <t>['nfdicore:relatedProject', 'mwo:relatedParticipantProject', 'nfdicore:fundingProject', 'mwo:hasRelatedResource', 'mwo:hasExpertiseIn', 'mwo:hasDocumentation', 'mwo:hasWorkPackage', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
     </row>
@@ -577,27 +577,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['datasets', 'dataset', 'Image data', 'data portal', 'data analysis', 'Framework for curation and distribution of reference datasets']</t>
+          <t>['datasets', 'dataset', 'Image data', 'data portal', 'Framework for curation and distribution of reference datasets']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1172216', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset', 'http://demo.fiz-karlsruhe.de/matwerk/E1196832', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal', 'http://demo.fiz-karlsruhe.de/matwerk/E68897', 'http://demo.fiz-karlsruhe.de/matwerk/E1248382']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1172216', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset', 'http://demo.fiz-karlsruhe.de/matwerk/E1196832', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal', 'http://demo.fiz-karlsruhe.de/matwerk/E1248382']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['has contributor', 'related participant project is', 'has related resource', 'has related Project', 'has bibliographic citation', 'has annotated source ', 'has definition source', 'has curation status', 'has affiliation']</t>
+          <t>['has contributor', 'related participant project is', 'has related resource', 'has related Project', 'has bibliographic citation', 'has annotated source ', 'has definition source']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/hasContributor', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://purls.helmholtz-metadaten.de/mwo/hasRelatedResource', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://purl.org/dc/terms/bibliographicCitation', 'http://www.w3.org/2002/07/owl#annotatedSource', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purl.obolibrary.org/obo/IAO_0000114', 'http://purls.helmholtz-metadaten.de/mwo/hasAffiliation']</t>
+          <t>['http://www.geneontology.org/formats/oboInOwl#hasBroadSynonym', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://purls.helmholtz-metadaten.de/mwo/hasLecturer', 'https://schema.org/dateCreated', 'http://www.w3.org/2002/07/owl#sameAs', 'http://emmo.info/emmo#EMMO_967080e5_2f42_4eb2_a3a9_c58143e835f9', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint']</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['mwo:hasContributor', 'mwo:relatedParticipantProject', 'mwo:hasRelatedResource', 'nfdicore:relatedProject', 'dcterms:bibliographicCitation', 'owl:annotatedSource', 'ns2:IAO_0000119', 'ns2:IAO_0000114', 'mwo:hasAffiliation', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:hasContributor', 'mwo:relatedParticipantProject', 'mwo:hasRelatedResource', 'nfdicore:relatedProject', 'dcterms:bibliographicCitation', 'owl:annotatedSource', 'ns2:IAO_0000119', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
     </row>
@@ -619,27 +619,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['Ebrahim Norouzi', 'Ebrahim Norouzi', 'Ahmad Zainul Ihsan', 'Mirza Mohtashim Alam', 'Hosni Idrissi']</t>
+          <t>['Ebrahim Norouzi', 'Ahmad Zainul Ihsan', 'Mirza Mohtashim Alam', 'Hosni Idrissi']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E15879', 'http://www.wikidata.org/entity/Q118232637', 'http://demo.fiz-karlsruhe.de/matwerk/E10181', 'http://demo.fiz-karlsruhe.de/matwerk/E1245566', 'http://demo.fiz-karlsruhe.de/matwerk/E31382']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E15879', 'http://demo.fiz-karlsruhe.de/matwerk/E10181', 'http://demo.fiz-karlsruhe.de/matwerk/E1245566', 'http://demo.fiz-karlsruhe.de/matwerk/E31382']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['has work package', 'has expertise in', 'has funding project ', 'related participant project is', 'has related Project', 'has discipline', 'has parent organisation ', 'has related task area', 'has documentation']</t>
+          <t>['has work package', 'has expertise in', 'has funding project ', 'related participant project is', 'has related Project', 'has discipline', 'has parent organisation ']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/hasWorkPackage', 'http://purls.helmholtz-metadaten.de/mwo/hasExpertiseIn', 'http://nfdi.fiz-karlsruhe.de/ontology/fundingProject', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://purls.helmholtz-metadaten.de/mwo/hasDiscipline', 'http://nfdi.fiz-karlsruhe.de/ontology/parentOrganisation', 'http://purls.helmholtz-metadaten.de/mwo/relatedTaskArea', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation']</t>
+          <t>['https://nfdi.fiz-karlsruhe.de/ontology/example', 'http://purls.helmholtz-metadaten.de/mwo/description', 'http://nfdi.fiz-karlsruhe.de/ontology/programmingLanguage', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'https://schema.org/dateCreated', 'http://purl.org/dc/terms/isPartOf', 'http://purls.helmholtz-metadaten.de/mwo/usesMethod']</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['mwo:hasWorkPackage', 'mwo:hasExpertiseIn', 'nfdicore:fundingProject', 'mwo:relatedParticipantProject', 'nfdicore:relatedProject', 'mwo:hasDiscipline', 'nfdicore:parentOrganisation', 'mwo:relatedTaskArea', 'mwo:hasDocumentation', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:hasWorkPackage', 'mwo:hasExpertiseIn', 'nfdicore:fundingProject', 'mwo:relatedParticipantProject', 'nfdicore:relatedProject', 'mwo:hasDiscipline', 'nfdicore:parentOrganisation', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
     </row>
@@ -661,27 +661,27 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['paraview', 'ParaView', 'ParaView', 'data portal', 'dataset']</t>
+          <t>['paraview', 'ParaView', 'data portal', 'dataset']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1231097', 'http://demo.fiz-karlsruhe.de/matwerk/E419156', 'http://www.wikidata.org/entity/Q474635', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1231097', 'http://demo.fiz-karlsruhe.de/matwerk/E419156', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['has email address ', 'has postal address', 'has website', 'has postal code', 'has file Extension', 'has comment', 'has contact point', 'has domain', 'has repository']</t>
+          <t>['has email address ', 'has postal address', 'has website', 'has postal code', 'has file Extension', 'has comment', 'has contact point']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/emailAddress', 'http://purls.helmholtz-metadaten.de/mwo/hasPostalAddress', 'http://purls.helmholtz-metadaten.de/mwo/hasWebsite', 'http://purls.helmholtz-metadaten.de/mwo/hasPostalCode', 'http://nfdi.fiz-karlsruhe.de/ontology/fileExtension', 'http://www.w3.org/2000/01/rdf-schema#comment', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://www.w3.org/2000/01/rdf-schema#domain', 'http://purls.helmholtz-metadaten.de/mwo/hasRepository']</t>
+          <t>['http://purl.obolibrary.org/obo/IAO_0000119', 'https://schema.org/datePublished', 'http://nfdi.fiz-karlsruhe.de/ontology/parentOrganisation', 'http://nfdi.fiz-karlsruhe.de/ontology/example', 'http://purl.obolibrary.org/obo/IAO_0000118', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://xmlns.com/foaf/0.1/surname']</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['mwo:emailAddress', 'mwo:hasPostalAddress', 'mwo:hasWebsite', 'mwo:hasPostalCode', 'nfdicore:fileExtension', 'rdfs:comment', 'mwo:hasContactPoint', 'rdfs:domain', 'mwo:hasRepository', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:emailAddress', 'mwo:hasPostalAddress', 'mwo:hasWebsite', 'mwo:hasPostalCode', 'nfdicore:fileExtension', 'rdfs:comment', 'mwo:hasContactPoint', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
     </row>
@@ -703,27 +703,27 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['Volker Hofmann', 'Dr.  Volker Hofmann', 'Tilmann Hickel', 'Niklas Siemer', 'Dr. Tilmann Hickel']</t>
+          <t>['Dr.  Volker Hofmann', 'Niklas Siemer', 'Dr. Tilmann Hickel', 'Prof. Dr.  Jörg Neugebauer']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q84561074', 'http://demo.fiz-karlsruhe.de/matwerk/E9912', 'http://www.wikidata.org/entity/Q45899344', 'http://demo.fiz-karlsruhe.de/matwerk/E20504', 'http://demo.fiz-karlsruhe.de/matwerk/E14531']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E9912', 'http://demo.fiz-karlsruhe.de/matwerk/E20504', 'http://demo.fiz-karlsruhe.de/matwerk/E14531', 'http://demo.fiz-karlsruhe.de/matwerk/E21101']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['has affiliation', 'has curation status', 'has parent organisation ', 'has citation', 'has documentation', 'related participant project is', 'has elucidation', 'has definition', 'has definition']</t>
+          <t>['has affiliation', 'has curation status', 'has parent organisation ', 'has citation', 'has documentation', 'related participant project is', 'has elucidation']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/hasAffiliation', 'http://purl.obolibrary.org/obo/IAO_0000114', 'http://nfdi.fiz-karlsruhe.de/ontology/parentOrganisation', 'https://schema.org/citation', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://purl.obolibrary.org/obo/IAO_0000600', 'http://www.geneontology.org/formats/oboInOwl#hasDefinition', 'http://www.w3.org/2004/02/skos/core#definition']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/isOnline', 'http://purl.org/dc/terms/bibliographicCitation', 'http://purls.helmholtz-metadaten.de/mwo/usesMethod', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#rest', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://purls.helmholtz-metadaten.de/mwo/hasVersion']</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['mwo:hasAffiliation', 'ns2:IAO_0000114', 'nfdicore:parentOrganisation', 'schema:citation', 'mwo:hasDocumentation', 'mwo:relatedParticipantProject', 'ns2:IAO_0000600', 'ns4:hasDefinition', 'skos:definition', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:hasAffiliation', 'ns2:IAO_0000114', 'nfdicore:parentOrganisation', 'schema:citation', 'mwo:hasDocumentation', 'mwo:relatedParticipantProject', 'ns2:IAO_0000600', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Molecular Dynamics</t>
+          <t>Molecular Dynamics" Software?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -745,27 +745,27 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['molecular dynamics', 'Visual Molecular Dynamics', 'Visual Molecular Dynamics', 'Quantum Chemistry', 'Computational Chemistry']</t>
+          <t>['Atomic Simulation Recipes', 'Workshop: From Electrons to Phase Diagrams', 'atomistic simulations', 'Atomistic simulations']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E616496', 'http://demo.fiz-karlsruhe.de/matwerk/E465167', 'http://www.wikidata.org/entity/Q7936565', 'http://demo.fiz-karlsruhe.de/matwerk/E70752', 'http://demo.fiz-karlsruhe.de/matwerk/E38676']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E552776', 'http://demo.fiz-karlsruhe.de/matwerk/E1245300', 'http://demo.fiz-karlsruhe.de/matwerk/E63482', 'http://demo.fiz-karlsruhe.de/matwerk/E1246908']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['has documentation', 'has bibliographic citation', 'related participant project is', 'has related resource', 'has related Project', 'has citation', 'has curation status', 'has programming Language ', 'has definition']</t>
+          <t>['has documentation', 'has bibliographic citation', 'related participant project is', 'has related resource', 'has related Project', 'has citation', 'has curation status']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'http://purl.org/dc/terms/bibliographicCitation', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://purls.helmholtz-metadaten.de/mwo/hasRelatedResource', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'https://schema.org/citation', 'http://purl.obolibrary.org/obo/IAO_0000114', 'http://nfdi.fiz-karlsruhe.de/ontology/programmingLanguage', 'http://www.geneontology.org/formats/oboInOwl#hasDefinition']</t>
+          <t>['https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'http://www.w3.org/2002/07/owl#sameAs', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://purls.helmholtz-metadaten.de/mwo/hasLecturer', 'https://schema.org/dateCreated', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#rest', 'http://purl.org/dc/terms/bibliographicCitation']</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['mwo:hasDocumentation', 'dcterms:bibliographicCitation', 'mwo:relatedParticipantProject', 'mwo:hasRelatedResource', 'nfdicore:relatedProject', 'schema:citation', 'ns2:IAO_0000114', 'nfdicore:programmingLanguage', 'ns4:hasDefinition', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:hasDocumentation', 'dcterms:bibliographicCitation', 'mwo:relatedParticipantProject', 'mwo:hasRelatedResource', 'nfdicore:relatedProject', 'schema:citation', 'ns2:IAO_0000114', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
     </row>
@@ -787,27 +787,27 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['Molecular Dynamics (MD)', 'Crystallography Open Database (COD)', 'abbreviation', 'Brunswick', 'Silicon', 'PMD Core Ontology']</t>
+          <t>['Molecular Dynamics (MD)', 'Crystallography Open Database (COD)', 'abbreviation', 'Silicon', 'PMD Core Ontology']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E61379', 'http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'http://purl.obolibrary.org/obo/NCIT_C42610', 'http://www.wikidata.org/entity/Q2773', 'http://demo.fiz-karlsruhe.de/matwerk/E1247879', 'http://demo.fiz-karlsruhe.de/matwerk/E1140296']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E61379', 'http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'http://purl.obolibrary.org/obo/NCIT_C42610', 'http://demo.fiz-karlsruhe.de/matwerk/E1247879', 'http://demo.fiz-karlsruhe.de/matwerk/E1140296']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['required tool', 'has related resource', 'related participant project is', 'has documentation', 'has instrument model', 'has related Project', 'has operating system ', 'uses technology', 'has curation status']</t>
+          <t>['required tool', 'has related resource', 'related participant project is', 'has documentation', 'has instrument model', 'has related Project', 'has operating system ']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/requiredTool', 'http://purls.helmholtz-metadaten.de/mwo/hasRelatedResource', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'https://schema.org/operatingSystem', 'http://purls.helmholtz-metadaten.de/mwo/usesTechnology', 'http://purl.obolibrary.org/obo/IAO_0000114']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/hasWebsite', 'http://purls.helmholtz-metadaten.de/mwo/hasLecturer', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'http://www.w3.org/2004/02/skos/core#prefLabel', 'https://schema.org/dateCreated', 'http://www.w3.org/2004/02/skos/core#definition']</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['mwo:requiredTool', 'mwo:hasRelatedResource', 'mwo:relatedParticipantProject', 'mwo:hasDocumentation', 'mwo:instrumentModel', 'nfdicore:relatedProject', 'schema:operatingSystem', 'mwo:usesTechnology', 'ns2:IAO_0000114', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:requiredTool', 'mwo:hasRelatedResource', 'mwo:relatedParticipantProject', 'mwo:hasDocumentation', 'mwo:instrumentModel', 'nfdicore:relatedProject', 'schema:operatingSystem', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
     </row>
@@ -829,27 +829,27 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['Computational materials science', 'Computational Materials Science', 'computational materials science', 'Computational materials science', 'Computational Material Science']</t>
+          <t>['computational materials science', 'Computational Materials Science', 'Computational materials science', 'Computational Material Science']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E49517', 'http://demo.fiz-karlsruhe.de/matwerk/E42042', 'http://demo.fiz-karlsruhe.de/matwerk/E67431', 'http://www.wikidata.org/entity/Q85753722', 'http://demo.fiz-karlsruhe.de/matwerk/E71126']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E67431', 'http://demo.fiz-karlsruhe.de/matwerk/E42042', 'http://demo.fiz-karlsruhe.de/matwerk/E49517', 'http://demo.fiz-karlsruhe.de/matwerk/E71126']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['has some values from', 'has work package', 'has related resource', 'related participant project is', 'has related Project', 'has conforms to specification', 'has operating system ', 'all values from', 'has rest element']</t>
+          <t>['has some values from', 'has work package', 'has related resource', 'related participant project is', 'has related Project', 'has conforms to specification', 'has operating system ']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['http://www.w3.org/2002/07/owl#someValuesFrom', 'http://purls.helmholtz-metadaten.de/mwo/hasWorkPackage', 'http://purls.helmholtz-metadaten.de/mwo/hasRelatedResource', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://purls.helmholtz-metadaten.de/mwo/conformsToSpecification', 'https://schema.org/operatingSystem', 'http://www.w3.org/2002/07/owl#allValuesFrom', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#rest']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/hasWorkPackage', 'https://nfdi.fiz-karlsruhe.de/ontology/example', 'http://purls.helmholtz-metadaten.de/mwo/hasLecturer', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'https://schema.org/dateCreated', 'http://purls.helmholtz-metadaten.de/mwo/hasFormat', 'http://www.w3.org/2004/02/skos/core#definition']</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['owl:someValuesFrom', 'mwo:hasWorkPackage', 'mwo:hasRelatedResource', 'mwo:relatedParticipantProject', 'nfdicore:relatedProject', 'mwo:conformsToSpecification', 'schema:operatingSystem', 'owl:allValuesFrom', 'rdf:rest', 'mwo:description', 'dcterms:description']</t>
+          <t>['owl:someValuesFrom', 'mwo:hasWorkPackage', 'mwo:hasRelatedResource', 'mwo:relatedParticipantProject', 'nfdicore:relatedProject', 'mwo:conformsToSpecification', 'schema:operatingSystem', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
     </row>
@@ -871,27 +871,27 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['Pyiron', 'Pyrho', 'pyDOE', 'cython', 'Cython', 'http://pyiron.org/swimm-workshop-2021/README.html']</t>
+          <t>['Pyiron', 'Pyrho', 'pyDOE', 'cython', 'https://github.com/pyiron/potentials-workshop-2021']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E457491', 'http://demo.fiz-karlsruhe.de/matwerk/E510546', 'http://demo.fiz-karlsruhe.de/matwerk/E598872', 'http://demo.fiz-karlsruhe.de/matwerk/E845351', 'http://www.wikidata.org/entity/Q975594', 'http://demo.fiz-karlsruhe.de/matwerk/E405551']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E457491', 'http://demo.fiz-karlsruhe.de/matwerk/E510546', 'http://demo.fiz-karlsruhe.de/matwerk/E598872', 'http://demo.fiz-karlsruhe.de/matwerk/E845351', 'http://demo.fiz-karlsruhe.de/matwerk/E410061']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['has annotated source ', 'has bibliographic citation', 'see also', 'has editor note', 'has  description', 'has description', 'has annotated target', 'has related synonym', 'has citation']</t>
+          <t>['has annotated source ', 'has bibliographic citation', 'see also', 'has editor note', 'has  description', 'has description', 'has annotated target']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['http://www.w3.org/2002/07/owl#annotatedSource', 'http://purl.org/dc/terms/bibliographicCitation', 'http://www.w3.org/2000/01/rdf-schema#seeAlso', 'http://purl.obolibrary.org/obo/IAO_0000116', 'http://purl.org/dc/terms/description', 'http://purls.helmholtz-metadaten.de/mwo/description', 'http://www.w3.org/2002/07/owl#annotatedTarget', 'http://www.geneontology.org/formats/oboInOwl#hasRelatedSynonym', 'https://schema.org/citation']</t>
+          <t>['http://emmo.info/emmo#EMMO_967080e5_2f42_4eb2_a3a9_c58143e835f9', 'http://www.w3.org/2002/07/owl#sameAs', 'http://purls.helmholtz-metadaten.de/mwo/hasExpertiseIn', 'http://purl.obolibrary.org/obo/IAO_0000116', 'http://purl.obolibrary.org/obo/IAO_0000115', 'http://www.w3.org/2002/07/owl#onProperty', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel']</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['owl:annotatedSource', 'dcterms:bibliographicCitation', 'rdfs:seeAlso', 'ns2:IAO_0000116', 'dcterms:description', 'mwo:description', 'owl:annotatedTarget', 'ns4:hasRelatedSynonym', 'schema:citation']</t>
+          <t>['owl:annotatedSource', 'dcterms:bibliographicCitation', 'rdfs:seeAlso', 'ns2:IAO_0000116', 'dcterms:description', 'mwo:description', 'owl:annotatedTarget', 'rdf:type']</t>
         </is>
       </c>
     </row>
@@ -913,27 +913,27 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>['Analytic bond-order potentials', 'Mechanical Behavior of Interface-Dominated Materials', 'hyperelastic materials', 'Image based prediction of the heat conduction tensor', 'Homogenization of elastic', 'C.A. Becker, F. Tavazza, Z.T. Trautt, and R.A. Buarque de Macedoc (2013), "Considerations for choosing and using force fields and interatomic potentials in materials science and engineering," Current Opinion in Solid State and Materials Science, 17, 277-283. DOI: 10.1016/j.cossms.2013.10.001 L.M. Hale, Z.T. Trautt, and C.A. Becker (2018), "Evaluating variability with atomistic simulations: the effect of potential and calculation methodology on the modeling of lattice and elastic constants," Modelling and Simulation in Materials Science and Engineering, 26, 055003. DOI: 10.1088/1361-651X/aabc05']</t>
+          <t>['Analytic bond-order potentials', 'Mechanical Behavior of Interface-Dominated Materials', 'hyperelastic materials', 'Image based prediction of the heat conduction tensor', 'C.A. Becker, F. Tavazza, Z.T. Trautt, and R.A. Buarque de Macedoc (2013), "Considerations for choosing and using force fields and interatomic potentials in materials science and engineering," Current Opinion in Solid State and Materials Science, 17, 277-283. DOI: 10.1016/j.cossms.2013.10.001 L.M. Hale, Z.T. Trautt, and C.A. Becker (2018), "Evaluating variability with atomistic simulations: the effect of potential and calculation methodology on the modeling of lattice and elastic constants," Modelling and Simulation in Materials Science and Engineering, 26, 055003. DOI: 10.1088/1361-651X/aabc05']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E40341', 'http://demo.fiz-karlsruhe.de/matwerk/E1245850', 'http://demo.fiz-karlsruhe.de/matwerk/E67796', 'http://demo.fiz-karlsruhe.de/matwerk/E417329', 'http://demo.fiz-karlsruhe.de/matwerk/E47361', 'http://demo.fiz-karlsruhe.de/matwerk/E969137']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E40341', 'http://demo.fiz-karlsruhe.de/matwerk/E1245850', 'http://demo.fiz-karlsruhe.de/matwerk/E67796', 'http://demo.fiz-karlsruhe.de/matwerk/E417329', 'http://demo.fiz-karlsruhe.de/matwerk/E969137']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['has  description', 'has description', 'has bibliographic citation', 'has definition', 'has definition', 'has documentation', 'has citation', 'has definition source', 'has elucidation']</t>
+          <t>['has  description', 'has description', 'has bibliographic citation', 'has definition', 'has definition', 'has documentation', 'has citation']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['http://purl.org/dc/terms/description', 'http://purls.helmholtz-metadaten.de/mwo/description', 'http://purl.org/dc/terms/bibliographicCitation', 'http://www.geneontology.org/formats/oboInOwl#hasDefinition', 'http://www.w3.org/2004/02/skos/core#definition', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'https://schema.org/citation', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purl.obolibrary.org/obo/IAO_0000600']</t>
+          <t>['http://purl.obolibrary.org/obo/IAO_0000115', 'http://www.w3.org/2002/07/owl#onProperty', 'http://www.w3.org/2002/07/owl#sameAs', 'http://xmlns.com/foaf/0.1/firstName', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#type', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#rest']</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['dcterms:description', 'mwo:description', 'dcterms:bibliographicCitation', 'ns4:hasDefinition', 'skos:definition', 'mwo:hasDocumentation', 'schema:citation', 'ns2:IAO_0000119', 'ns2:IAO_0000600']</t>
+          <t>['dcterms:description', 'mwo:description', 'dcterms:bibliographicCitation', 'ns4:hasDefinition', 'skos:definition', 'mwo:hasDocumentation', 'schema:citation', 'rdf:type']</t>
         </is>
       </c>
     </row>
@@ -955,27 +955,27 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['Python scripts', 'Java', 'Java', 'python', 'Python', 'Materials Cloud', 'Materials Commons', 'measurement processing', 'metadata ', 'Metadata']</t>
+          <t>['Python scripts', 'Java', 'python', 'Python', 'Materials Cloud', 'Materials Commons', 'measurement processing', 'Metadata']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1198379', 'http://demo.fiz-karlsruhe.de/matwerk/E833696', 'http://www.wikidata.org/entity/Q251', 'http://demo.fiz-karlsruhe.de/matwerk/E836279', 'http://demo.fiz-karlsruhe.de/matwerk/E832406', 'http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'http://demo.fiz-karlsruhe.de/matwerk/E1086602', 'http://demo.fiz-karlsruhe.de/matwerk/E69636', 'http://demo.fiz-karlsruhe.de/matwerk/E38951', 'http://demo.fiz-karlsruhe.de/matwerk/E1245727']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1198379', 'http://demo.fiz-karlsruhe.de/matwerk/E833696', 'http://demo.fiz-karlsruhe.de/matwerk/E836279', 'http://demo.fiz-karlsruhe.de/matwerk/E832406', 'http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'http://demo.fiz-karlsruhe.de/matwerk/E1086602', 'http://demo.fiz-karlsruhe.de/matwerk/E69636', 'http://demo.fiz-karlsruhe.de/matwerk/E1245727']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['uses software', 'has example of usage', 'has repository', 'required tool', 'uses method', 'uses technology', 'has file Extension', 'has software', 'has annotated source ']</t>
+          <t>['uses software', 'has example of usage', 'has repository', 'required tool', 'uses method', 'uses technology', 'has file Extension']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['http://www.ebi.ac.uk/swo/SWO_0000082', 'http://purl.obolibrary.org/obo/IAO_0000112', 'http://purls.helmholtz-metadaten.de/mwo/hasRepository', 'http://purls.helmholtz-metadaten.de/mwo/requiredTool', 'http://purls.helmholtz-metadaten.de/mwo/usesMethod', 'http://purls.helmholtz-metadaten.de/mwo/usesTechnology', 'http://nfdi.fiz-karlsruhe.de/ontology/fileExtension', 'https://nfdi.fiz-karlsruhe.de/ontology/Software', 'http://www.w3.org/2002/07/owl#annotatedSource']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/hasContributor', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://purls.helmholtz-metadaten.de/mwo/usesTechnology', 'http://purls.helmholtz-metadaten.de/mwo/hasWebsite', 'http://purl.obolibrary.org/obo/IAO_0000600', 'http://purls.helmholtz-metadaten.de/mwo/conformsToSpecification', 'http://purl.obolibrary.org/obo/IAO_0000118']</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['ns3:SWO_0000082', 'ns2:IAO_0000112', 'mwo:hasRepository', 'mwo:requiredTool', 'mwo:usesMethod', 'mwo:usesTechnology', 'nfdicore:fileExtension', 'nfdicore:Software', 'owl:annotatedSource', 'mwo:description', 'dcterms:description']</t>
+          <t>['ns3:SWO_0000082', 'ns2:IAO_0000112', 'mwo:hasRepository', 'mwo:requiredTool', 'mwo:usesMethod', 'mwo:usesTechnology', 'nfdicore:fileExtension', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
     </row>
@@ -997,27 +997,27 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['electronic lab notebook', 'Jupyter notebooks', 'Experimental Workflow', 'Atomic Simulation Environment', 'Laboratory Instrument']</t>
+          <t>['electronic lab notebook', 'Jupyter notebooks', 'Experimental Workflow', 'Atomic Simulation Environment']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/ElectronicLabNotebook', 'http://demo.fiz-karlsruhe.de/matwerk/E1199927', 'http://purls.helmholtz-metadaten.de/mwo/ExperimentalWorkflow', 'http://demo.fiz-karlsruhe.de/matwerk/E460362', 'https://w3id.org/skgo/modsci#LaboratoryInstrument']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/ElectronicLabNotebook', 'http://demo.fiz-karlsruhe.de/matwerk/E1199927', 'http://purls.helmholtz-metadaten.de/mwo/ExperimentalWorkflow', 'http://demo.fiz-karlsruhe.de/matwerk/E460362']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['has type', 'has object type', 'has media type or extend', 'uses method', 'has example of usage', 'has definition source', 'has instrument model', 'has definition', 'has definition']</t>
+          <t>['has type', 'has object type', 'has media type or extend', 'uses method', 'has example of usage', 'has definition source', 'has instrument model']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['http://www.w3.org/1999/02/22-rdf-syntax-ns#type', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://purl.org/dc/elements/1.1/contributor', 'http://purls.helmholtz-metadaten.de/mwo/usesMethod', 'http://purl.obolibrary.org/obo/IAO_0000112', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://www.geneontology.org/formats/oboInOwl#hasDefinition', 'http://www.w3.org/2004/02/skos/core#definition']</t>
+          <t>['http://purl.obolibrary.org/obo/IAO_0000111', 'http://purls.helmholtz-metadaten.de/mwo/hasAcronym', 'http://www.w3.org/2002/07/owl#annotatedSource', 'http://purl.obolibrary.org/obo/IAO_0000600', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://www.w3.org/2004/02/skos/core#prefLabel']</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['rdf:type', 'nfdicore:objectType', 'dc:contributor', 'mwo:usesMethod', 'ns2:IAO_0000112', 'ns2:IAO_0000119', 'mwo:instrumentModel', 'ns4:hasDefinition', 'skos:definition', 'mwo:description', 'dcterms:description']</t>
+          <t>['rdf:type', 'nfdicore:objectType', 'dc:contributor', 'mwo:usesMethod', 'ns2:IAO_0000112', 'ns2:IAO_0000119', 'mwo:instrumentModel', 'mwo:description', 'dcterms:description']</t>
         </is>
       </c>
     </row>
@@ -1039,27 +1039,27 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['molecular dynamics', 'Visual Molecular Dynamics', 'Visual Molecular Dynamics', 'Quantum Chemistry', 'Computational Chemistry', 'Molecular Dynamics (MD)', 'Crystallography Open Database (COD)', 'abbreviation', 'Brunswick', 'Silicon']</t>
+          <t>['molecular dynamics', 'Visual Molecular Dynamics', 'Quantum Chemistry', 'Computational Chemistry', 'Molecular Dynamics (MD)', 'Crystallography Open Database (COD)', 'abbreviation', 'Silicon']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E616496', 'http://demo.fiz-karlsruhe.de/matwerk/E465167', 'http://www.wikidata.org/entity/Q7936565', 'http://demo.fiz-karlsruhe.de/matwerk/E70752', 'http://demo.fiz-karlsruhe.de/matwerk/E38676', 'http://demo.fiz-karlsruhe.de/matwerk/E61379', 'http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'http://purl.obolibrary.org/obo/NCIT_C42610', 'http://www.wikidata.org/entity/Q2773', 'http://demo.fiz-karlsruhe.de/matwerk/E1247879']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E616496', 'http://demo.fiz-karlsruhe.de/matwerk/E465167', 'http://demo.fiz-karlsruhe.de/matwerk/E70752', 'http://demo.fiz-karlsruhe.de/matwerk/E38676', 'http://demo.fiz-karlsruhe.de/matwerk/E61379', 'http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'http://purl.obolibrary.org/obo/NCIT_C42610', 'http://demo.fiz-karlsruhe.de/matwerk/E1247879']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['has software', 'uses software', 'required tool', 'has operating system ', 'uses technology', 'has instrument model', 'has file Extension', 'has website', 'has programming Language ']</t>
+          <t>['uses software', 'required tool', 'has operating system ', 'uses technology', 'has instrument model', 'has file Extension', 'has website']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://nfdi.fiz-karlsruhe.de/ontology/Software', 'http://www.ebi.ac.uk/swo/SWO_0000082', 'http://purls.helmholtz-metadaten.de/mwo/requiredTool', 'https://schema.org/operatingSystem', 'http://purls.helmholtz-metadaten.de/mwo/usesTechnology', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://nfdi.fiz-karlsruhe.de/ontology/fileExtension', 'http://purls.helmholtz-metadaten.de/mwo/hasWebsite', 'http://nfdi.fiz-karlsruhe.de/ontology/programmingLanguage']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/hasContributor', 'http://purls.helmholtz-metadaten.de/mwo/hasWebsite', 'http://www.w3.org/2004/02/skos/core#definition', 'http://purls.helmholtz-metadaten.de/mwo/conformsToSpecification', 'http://www.w3.org/2004/02/skos/core#prefLabel', 'http://purl.obolibrary.org/obo/IAO_0000118', 'http://nfdi.fiz-karlsruhe.de/ontology/parentOrganisation']</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['nfdicore:Software', 'ns3:SWO_0000082', 'mwo:requiredTool', 'schema:operatingSystem', 'mwo:usesTechnology', 'mwo:instrumentModel', 'nfdicore:fileExtension', 'mwo:hasWebsite', 'nfdicore:programmingLanguage', 'mwo:description', 'dcterms:description']</t>
+          <t>['ns3:SWO_0000082', 'mwo:requiredTool', 'schema:operatingSystem', 'mwo:usesTechnology', 'mwo:instrumentModel', 'nfdicore:fileExtension', 'mwo:hasWebsite', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>['Computational materials science', 'Computational Materials Science', 'computational materials science', 'Computational materials science', 'Nanocrystalline materials']</t>
+          <t>['computational materials science', 'Computational Materials Science', 'Computational materials science', 'Nanocrystalline materials']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E49517', 'http://demo.fiz-karlsruhe.de/matwerk/E42042', 'http://demo.fiz-karlsruhe.de/matwerk/E67431', 'http://www.wikidata.org/entity/Q85753722', 'http://demo.fiz-karlsruhe.de/matwerk/E43779']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E67431', 'http://demo.fiz-karlsruhe.de/matwerk/E42042', 'http://demo.fiz-karlsruhe.de/matwerk/E49517', 'http://demo.fiz-karlsruhe.de/matwerk/E43779']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['has ontology', 'has bibliographic citation', 'has  description', 'has description', 'has definition', 'has definition', 'has semantic expressivity', 'has elucidation', 'has definition source']</t>
+          <t>['has bibliographic citation', 'has  description', 'has description', 'has definition', 'has definition', 'has semantic expressivity', 'has elucidation']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://nfdi.fiz-karlsruhe.de/ontology/Ontology', 'http://purl.org/dc/terms/bibliographicCitation', 'http://purl.org/dc/terms/description', 'http://purls.helmholtz-metadaten.de/mwo/description', 'http://www.geneontology.org/formats/oboInOwl#hasDefinition', 'http://www.w3.org/2004/02/skos/core#definition', 'http://nfdi.fiz-karlsruhe.de/ontology/semanticExpressivity', 'http://purl.obolibrary.org/obo/IAO_0000600', 'http://purl.obolibrary.org/obo/IAO_0000119']</t>
+          <t>['http://www.w3.org/2002/07/owl#sameAs', 'http://purl.obolibrary.org/obo/IAO_0000115', 'http://www.w3.org/2002/07/owl#onProperty', 'http://xmlns.com/foaf/0.1/firstName', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#type', 'http://nfdi.fiz-karlsruhe.de/ontology/url', 'http://purls.helmholtz-metadaten.de/mwo/hasVersion']</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['nfdicore:Ontology', 'dcterms:bibliographicCitation', 'dcterms:description', 'mwo:description', 'ns4:hasDefinition', 'skos:definition', 'nfdicore:semanticExpressivity', 'ns2:IAO_0000600', 'ns2:IAO_0000119']</t>
+          <t>['dcterms:bibliographicCitation', 'dcterms:description', 'mwo:description', 'ns4:hasDefinition', 'skos:definition', 'nfdicore:semanticExpressivity', 'ns2:IAO_0000600', 'rdf:type']</t>
         </is>
       </c>
     </row>
@@ -1123,27 +1123,27 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>["['Dusseldorf Advanced Material Simulation Kit (DAMASK)',  'Elk',  'Elk',  'Novel Materials Discovery (NOMAD)',  'NOMAD]"]</t>
+          <t>['Elk', 'NOMAD', 'Novel Materials Discovery (NOMAD)', 'Silicon']</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E456536', 'http://demo.fiz-karlsruhe.de/matwerk/E444212', 'http://www.wikidata.org/entity/Q114833975', 'http://demo.fiz-karlsruhe.de/matwerk/E1028462', 'http://demo.fiz-karlsruhe.de/matwerk/E858396']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E444212', 'http://demo.fiz-karlsruhe.de/matwerk/E858396', 'http://demo.fiz-karlsruhe.de/matwerk/E1028462', 'http://demo.fiz-karlsruhe.de/matwerk/E1247879']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>['has type', 'has object type', 'has media type or extend', 'uses method', 'has example of usage', 'has definition source', 'has instrument model', 'has definition', 'has definition']</t>
+          <t>['has type', 'has object type', 'has media type or extend', 'uses method', 'has example of usage', 'has definition source', 'has instrument model']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['http://www.w3.org/1999/02/22-rdf-syntax-ns#type', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://purl.org/dc/elements/1.1/contributor', 'http://purls.helmholtz-metadaten.de/mwo/usesMethod', 'http://purl.obolibrary.org/obo/IAO_0000112', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://www.geneontology.org/formats/oboInOwl#hasDefinition', 'http://www.w3.org/2004/02/skos/core#definition']</t>
+          <t>['http://purl.obolibrary.org/obo/IAO_0000111', 'http://purls.helmholtz-metadaten.de/mwo/hasAcronym', 'http://www.w3.org/2002/07/owl#annotatedSource', 'http://purl.obolibrary.org/obo/IAO_0000600', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://www.w3.org/2004/02/skos/core#prefLabel']</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['rdf:type', 'nfdicore:objectType', 'dc:contributor', 'mwo:usesMethod', 'ns2:IAO_0000112', 'ns2:IAO_0000119', 'mwo:instrumentModel', 'ns4:hasDefinition', 'skos:definition', 'mwo:description', 'dcterms:description']</t>
+          <t>['rdf:type', 'nfdicore:objectType', 'dc:contributor', 'mwo:usesMethod', 'ns2:IAO_0000112', 'ns2:IAO_0000119', 'mwo:instrumentModel', 'mwo:description', 'dcterms:description']</t>
         </is>
       </c>
     </row>
@@ -1165,27 +1165,27 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>['Ontologies for Materials Science', 'Computational Material Science', 'Computational Material Sample Ontology', 'Computational materials science', 'Computational Materials Science']</t>
+          <t>['Ontologies for Materials Science', 'Computational Material Science', 'Computational Material Sample Ontology', 'computational materials science']</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1247883', 'http://demo.fiz-karlsruhe.de/matwerk/E71126', 'http://demo.fiz-karlsruhe.de/matwerk/E1247323', 'http://demo.fiz-karlsruhe.de/matwerk/E49517', 'http://demo.fiz-karlsruhe.de/matwerk/E42042']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1247883', 'http://demo.fiz-karlsruhe.de/matwerk/E71126', 'http://demo.fiz-karlsruhe.de/matwerk/E1247323', 'http://demo.fiz-karlsruhe.de/matwerk/E67431']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['has repository', 'has website', 'has definition source', 'has annotated source ', 'has domain', 'has location', 'has contact point', 'has main task area ', 'has file Extension']</t>
+          <t>['has repository', 'has website', 'has definition source', 'has annotated source ', 'has domain', 'has location', 'has contact point']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/hasRepository', 'http://purls.helmholtz-metadaten.de/mwo/hasWebsite', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://www.w3.org/2002/07/owl#annotatedSource', 'http://www.w3.org/2000/01/rdf-schema#domain', 'http://nfdi.fiz-karlsruhe.de/ontology/location', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://purls.helmholtz-metadaten.de/mwo/mainTaskArea', 'http://nfdi.fiz-karlsruhe.de/ontology/fileExtension']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/usesTechnology', 'http://nfdi.fiz-karlsruhe.de/ontology/parentOrganisation', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://emmo.info/emmo#EMMO_967080e5_2f42_4eb2_a3a9_c58143e835f9', 'http://purl.org/dc/terms/description', 'http://purl.org/dc/terms/license', 'http://xmlns.com/foaf/0.1/surname']</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['mwo:hasRepository', 'mwo:hasWebsite', 'ns2:IAO_0000119', 'owl:annotatedSource', 'rdfs:domain', 'nfdicore:location', 'mwo:hasContactPoint', 'mwo:mainTaskArea', 'nfdicore:fileExtension', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:hasRepository', 'mwo:hasWebsite', 'ns2:IAO_0000119', 'owl:annotatedSource', 'rdfs:domain', 'nfdicore:location', 'mwo:hasContactPoint', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
     </row>
@@ -1207,27 +1207,27 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['acronym', 'Silicon', 'SIRIUS', 'Crystallography Open Database (COD)', 'Instrument', 'APT analysis using CompositionSpace and pyiron']</t>
+          <t>['acronym', 'Silicon', 'SIRIUS', 'Crystallography Open Database (COD)', 'APT analysis using CompositionSpace and pyiron']</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['http://purl.obolibrary.org/obo/NCIT_C93495', 'http://demo.fiz-karlsruhe.de/matwerk/E1247879', 'http://demo.fiz-karlsruhe.de/matwerk/E542321', 'http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'https://w3id.org/skgo/modsci#Instrument', 'http://demo.fiz-karlsruhe.de/matwerk/E1246677']</t>
+          <t>['http://purl.obolibrary.org/obo/NCIT_C93495', 'http://demo.fiz-karlsruhe.de/matwerk/E1247879', 'http://demo.fiz-karlsruhe.de/matwerk/E542321', 'http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'http://demo.fiz-karlsruhe.de/matwerk/E1246677']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['has instrument model', 'has first element', 'has documentation', 'has definition', 'has definition', 'has operating system ', 'has curation status', 'required tool', 'has citation']</t>
+          <t>['has instrument model', 'has first element', 'has documentation', 'has definition', 'has definition', 'has operating system ', 'has curation status']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#first', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'http://www.geneontology.org/formats/oboInOwl#hasDefinition', 'http://www.w3.org/2004/02/skos/core#definition', 'https://schema.org/operatingSystem', 'http://purl.obolibrary.org/obo/IAO_0000114', 'http://purls.helmholtz-metadaten.de/mwo/requiredTool', 'https://schema.org/citation']</t>
+          <t>['http://www.w3.org/2004/02/skos/core#prefLabel', 'http://xmlns.com/foaf/0.1/depiction', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'http://xmlns.com/foaf/0.1/firstName', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#type', 'http://www.w3.org/2004/02/skos/core#definition', 'http://purl.org/dc/terms/bibliographicCitation']</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['mwo:instrumentModel', 'rdf:first', 'mwo:hasDocumentation', 'ns4:hasDefinition', 'skos:definition', 'schema:operatingSystem', 'ns2:IAO_0000114', 'mwo:requiredTool', 'schema:citation', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:instrumentModel', 'rdf:first', 'mwo:hasDocumentation', 'ns4:hasDefinition', 'skos:definition', 'schema:operatingSystem', 'ns2:IAO_0000114', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
     </row>
@@ -1249,27 +1249,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>['acronym', 'Project', 'project', 'project', 'Instrument', 'Tomography and Microstructure-based Modelling (Tomography)', 'computed tomography', 'X-ray computed tomography', 'Atom Probe Tomography', 'X-ray imaging']</t>
+          <t>['acronym', 'project', 'project', 'Project', 'Tomography and Microstructure-based Modelling (Tomography)', 'X-ray computed tomography', 'Atom Probe Tomography', 'X-ray imaging']</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['http://purl.obolibrary.org/obo/NCIT_C93495', 'http://schema.org/Project', 'https://nfdi.fiz-karlsruhe.de/ontology/Project', 'http://nfdi.fiz-karlsruhe.de/ontology/Project', 'https://w3id.org/skgo/modsci#Instrument', 'http://demo.fiz-karlsruhe.de/matwerk/E1248178', 'http://www.wikidata.org/entity/Q32566', 'http://demo.fiz-karlsruhe.de/matwerk/E62426', 'http://demo.fiz-karlsruhe.de/matwerk/E1246872', 'http://demo.fiz-karlsruhe.de/matwerk/E612066']</t>
+          <t>['http://purl.obolibrary.org/obo/NCIT_C93495', 'https://nfdi.fiz-karlsruhe.de/ontology/Project', 'http://nfdi.fiz-karlsruhe.de/ontology/Project', 'http://schema.org/Project', 'http://demo.fiz-karlsruhe.de/matwerk/E1248178', 'http://demo.fiz-karlsruhe.de/matwerk/E62426', 'http://demo.fiz-karlsruhe.de/matwerk/E1246872', 'http://demo.fiz-karlsruhe.de/matwerk/E612066']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>['has  description', 'has description', 'has bibliographic citation', 'has definition', 'has definition', 'has documentation', 'has citation', 'has definition source', 'has elucidation']</t>
+          <t>['has  description', 'has description', 'has bibliographic citation', 'has definition', 'has definition', 'has documentation', 'has citation']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['http://purl.org/dc/terms/description', 'http://purls.helmholtz-metadaten.de/mwo/description', 'http://purl.org/dc/terms/bibliographicCitation', 'http://www.geneontology.org/formats/oboInOwl#hasDefinition', 'http://www.w3.org/2004/02/skos/core#definition', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'https://schema.org/citation', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purl.obolibrary.org/obo/IAO_0000600']</t>
+          <t>['http://purl.obolibrary.org/obo/IAO_0000115', 'http://www.w3.org/2002/07/owl#onProperty', 'http://www.w3.org/2002/07/owl#sameAs', 'http://xmlns.com/foaf/0.1/firstName', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#type', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#rest']</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['dcterms:description', 'mwo:description', 'dcterms:bibliographicCitation', 'ns4:hasDefinition', 'skos:definition', 'mwo:hasDocumentation', 'schema:citation', 'ns2:IAO_0000119', 'ns2:IAO_0000600']</t>
+          <t>['dcterms:description', 'mwo:description', 'dcterms:bibliographicCitation', 'ns4:hasDefinition', 'skos:definition', 'mwo:hasDocumentation', 'schema:citation', 'rdf:type']</t>
         </is>
       </c>
     </row>
@@ -1291,27 +1291,27 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>['ontology', 'ontology alignment', 'ontology matching', 'The MatWerk ontology', 'Ontologies for Materials Science', 'PMD Core Ontology']</t>
+          <t>['ontology', 'ontology matching', 'The MatWerk ontology', 'Ontologies for Materials Science', 'Material Science and Engineering Ontology (MSEO)']</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['https://nfdi.fiz-karlsruhe.de/ontology/Ontology', 'http://www.wikidata.org/entity/Q4339878', 'http://demo.fiz-karlsruhe.de/matwerk/E37586', 'http://purls.helmholtz-metadaten.de/mwo/', 'http://demo.fiz-karlsruhe.de/matwerk/E1247883', 'http://demo.fiz-karlsruhe.de/matwerk/E1140296']</t>
+          <t>['https://nfdi.fiz-karlsruhe.de/ontology/Ontology', 'http://demo.fiz-karlsruhe.de/matwerk/E37586', 'http://purls.helmholtz-metadaten.de/mwo/', 'http://demo.fiz-karlsruhe.de/matwerk/E1247883', 'http://demo.fiz-karlsruhe.de/matwerk/E1138787']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>['has related resource', 'related participant project is', 'has documentation', 'has related Project', 'has funding project ', 'has parent organisation ', 'has bibliographic citation', 'has definition source', 'has expertise in']</t>
+          <t>['has related resource', 'related participant project is', 'has documentation', 'has related Project', 'has funding project ', 'has parent organisation ', 'has bibliographic citation']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/hasRelatedResource', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://nfdi.fiz-karlsruhe.de/ontology/fundingProject', 'http://nfdi.fiz-karlsruhe.de/ontology/parentOrganisation', 'http://purl.org/dc/terms/bibliographicCitation', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purls.helmholtz-metadaten.de/mwo/hasExpertiseIn']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/hasLecturer', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'https://schema.org/dateCreated', 'http://nfdi.fiz-karlsruhe.de/ontology/programmingLanguage', 'http://purls.helmholtz-metadaten.de/mwo/usesMethod', 'http://www.w3.org/2002/07/owl#sameAs']</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['mwo:hasRelatedResource', 'mwo:relatedParticipantProject', 'mwo:hasDocumentation', 'nfdicore:relatedProject', 'nfdicore:fundingProject', 'nfdicore:parentOrganisation', 'dcterms:bibliographicCitation', 'ns2:IAO_0000119', 'mwo:hasExpertiseIn', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:hasRelatedResource', 'mwo:relatedParticipantProject', 'mwo:hasDocumentation', 'nfdicore:relatedProject', 'nfdicore:fundingProject', 'nfdicore:parentOrganisation', 'dcterms:bibliographicCitation', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
     </row>
@@ -1333,27 +1333,27 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>['Materials Project API', 'HybriD³ materials database', 'Materials Platform for Data Science', 'Materials Cloud', 'MAX (MAterials design at the eXascale)']</t>
+          <t>['Materials Project API', 'HybriD³ materials database', 'Materials Platform for Data Science', 'Materials Cloud']</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E547536', 'http://demo.fiz-karlsruhe.de/matwerk/E1063154', 'http://demo.fiz-karlsruhe.de/matwerk/E1035642', 'http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'http://demo.fiz-karlsruhe.de/matwerk/E7107']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E547536', 'http://demo.fiz-karlsruhe.de/matwerk/E1063154', 'http://demo.fiz-karlsruhe.de/matwerk/E1035642', 'http://demo.fiz-karlsruhe.de/matwerk/E1027029']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>['has url', 'has file Extension', 'has repository', 'has keyword ', 'has software', 'has website', 'has domain', 'has postal code', 'has email address ']</t>
+          <t>['has url', 'has file Extension', 'has repository', 'has keyword ', 'has website', 'has domain', 'has postal code']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['http://nfdi.fiz-karlsruhe.de/ontology/url', 'http://nfdi.fiz-karlsruhe.de/ontology/fileExtension', 'http://purls.helmholtz-metadaten.de/mwo/hasRepository', 'http://purls.helmholtz-metadaten.de/mwo/keyword', 'https://nfdi.fiz-karlsruhe.de/ontology/Software', 'http://purls.helmholtz-metadaten.de/mwo/hasWebsite', 'http://www.w3.org/2000/01/rdf-schema#domain', 'http://purls.helmholtz-metadaten.de/mwo/hasPostalCode', 'http://purls.helmholtz-metadaten.de/mwo/emailAddress']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/hasRORID', 'http://purl.obolibrary.org/obo/IAO_0000118', 'http://purls.helmholtz-metadaten.de/mwo/usesTechnology', 'http://www.w3.org/2000/01/rdf-schema#subClassOf', 'http://nfdi.fiz-karlsruhe.de/ontology/parentOrganisation', 'http://purl.org/dc/terms/description', 'http://nfdi.fiz-karlsruhe.de/ontology/example']</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['nfdicore:url', 'nfdicore:fileExtension', 'mwo:hasRepository', 'mwo:keyword', 'nfdicore:Software', 'mwo:hasWebsite', 'rdfs:domain', 'mwo:hasPostalCode', 'mwo:emailAddress', 'mwo:description', 'dcterms:description']</t>
+          <t>['nfdicore:url', 'nfdicore:fileExtension', 'mwo:hasRepository', 'mwo:keyword', 'mwo:hasWebsite', 'rdfs:domain', 'mwo:hasPostalCode', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
     </row>
@@ -1375,27 +1375,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>['specification', 'Silicon', 'acronym', 'software', 'software', 'R. S. Elliott and E. B. Tadmor, "Knowledgebase of Interatomic Models (KIM) Application Programming Interface (API)", OpenKIM (2011). doi:10.25950/ff8f563a']</t>
+          <t>['specification', 'Silicon', 'acronym', 'software', 'R. S. Elliott and E. B. Tadmor, "Knowledgebase of Interatomic Models (KIM) Application Programming Interface (API)", OpenKIM (2011). doi:10.25950/ff8f563a']</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['http://nfdi.fiz-karlsruhe.de/ontology/Specification', 'http://demo.fiz-karlsruhe.de/matwerk/E1247879', 'http://purl.obolibrary.org/obo/NCIT_C93495', 'http://nfdi.fiz-karlsruhe.de/ontology/Software', 'http://www.ebi.ac.uk/swo/SWO_0000001', 'http://demo.fiz-karlsruhe.de/matwerk/E962192']</t>
+          <t>['http://nfdi.fiz-karlsruhe.de/ontology/Specification', 'http://demo.fiz-karlsruhe.de/matwerk/E1247879', 'http://purl.obolibrary.org/obo/NCIT_C93495', 'http://www.ebi.ac.uk/swo/SWO_0000001', 'http://demo.fiz-karlsruhe.de/matwerk/E962192']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>['has  description', 'has description', 'has bibliographic citation', 'has definition', 'has definition', 'has documentation', 'has citation', 'has definition source', 'has elucidation']</t>
+          <t>['has  description', 'has description', 'has bibliographic citation', 'has definition', 'has definition', 'has documentation', 'has citation']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['http://purl.org/dc/terms/description', 'http://purls.helmholtz-metadaten.de/mwo/description', 'http://purl.org/dc/terms/bibliographicCitation', 'http://www.geneontology.org/formats/oboInOwl#hasDefinition', 'http://www.w3.org/2004/02/skos/core#definition', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'https://schema.org/citation', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purl.obolibrary.org/obo/IAO_0000600']</t>
+          <t>['http://purl.obolibrary.org/obo/IAO_0000115', 'http://www.w3.org/2002/07/owl#onProperty', 'http://www.w3.org/2002/07/owl#sameAs', 'http://xmlns.com/foaf/0.1/firstName', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#type', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#rest']</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['dcterms:description', 'mwo:description', 'dcterms:bibliographicCitation', 'ns4:hasDefinition', 'skos:definition', 'mwo:hasDocumentation', 'schema:citation', 'ns2:IAO_0000119', 'ns2:IAO_0000600']</t>
+          <t>['dcterms:description', 'mwo:description', 'dcterms:bibliographicCitation', 'ns4:hasDefinition', 'skos:definition', 'mwo:hasDocumentation', 'schema:citation', 'rdf:type']</t>
         </is>
       </c>
     </row>
@@ -1417,27 +1417,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>['MatDB Online', 'MatDB', 'Organic Materials Database (OMDB)', 'is online', 'MatPortal']</t>
+          <t>['MatDB Online', 'MatDB', 'Organic Materials Database (OMDB)', 'is online']</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1146342', 'http://demo.fiz-karlsruhe.de/matwerk/E1039962', 'http://demo.fiz-karlsruhe.de/matwerk/E1073381', 'http://purls.helmholtz-metadaten.de/mwo/isOnline', 'http://demo.fiz-karlsruhe.de/matwerk/E1029896']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1146342', 'http://demo.fiz-karlsruhe.de/matwerk/E1039962', 'http://demo.fiz-karlsruhe.de/matwerk/E1073381', 'http://purls.helmholtz-metadaten.de/mwo/isOnline']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>['has documentation', 'has bibliographic citation', 'has citation', 'has curation status', 'has  description', 'has description', 'related participant project is', 'has elucidation', 'has definition']</t>
+          <t>['has documentation', 'has bibliographic citation', 'has citation', 'has curation status', 'has  description', 'has description', 'related participant project is']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'http://purl.org/dc/terms/bibliographicCitation', 'https://schema.org/citation', 'http://purl.obolibrary.org/obo/IAO_0000114', 'http://purl.org/dc/terms/description', 'http://purls.helmholtz-metadaten.de/mwo/description', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://purl.obolibrary.org/obo/IAO_0000600', 'http://www.geneontology.org/formats/oboInOwl#hasDefinition']</t>
+          <t>['https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'http://www.w3.org/2002/07/owl#sameAs', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#rest', 'http://purl.org/dc/terms/bibliographicCitation', 'http://purl.obolibrary.org/obo/IAO_0000115', 'http://www.w3.org/2002/07/owl#onProperty', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType']</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['mwo:hasDocumentation', 'dcterms:bibliographicCitation', 'schema:citation', 'ns2:IAO_0000114', 'dcterms:description', 'mwo:description', 'mwo:relatedParticipantProject', 'ns2:IAO_0000600', 'ns4:hasDefinition']</t>
+          <t>['mwo:hasDocumentation', 'dcterms:bibliographicCitation', 'schema:citation', 'ns2:IAO_0000114', 'dcterms:description', 'mwo:description', 'mwo:relatedParticipantProject', 'rdf:type']</t>
         </is>
       </c>
     </row>
@@ -1459,27 +1459,27 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>['Proprietary license', 'Proprietary commercial software license', 'Commercial license', 'software repository', 'documentation']</t>
+          <t>['Proprietary license', 'Proprietary commercial software license', 'Commercial license', 'software repository']</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E748254', 'http://www.ebi.ac.uk/swo/license/SWO_1000002', 'http://demo.fiz-karlsruhe.de/matwerk/E770421', 'http://purls.helmholtz-metadaten.de/mwo/SoftwareRepository', 'http://purls.helmholtz-metadaten.de/mwo/Documentation']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E748254', 'http://www.ebi.ac.uk/swo/license/SWO_1000002', 'http://demo.fiz-karlsruhe.de/matwerk/E770421', 'http://purls.helmholtz-metadaten.de/mwo/SoftwareRepository']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>['has type', 'has object type', 'has media type or extend', 'uses method', 'has example of usage', 'has definition source', 'has instrument model', 'has definition', 'has definition']</t>
+          <t>['has type', 'has object type', 'has media type or extend', 'uses method', 'has example of usage', 'has definition source', 'has instrument model']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['http://www.w3.org/1999/02/22-rdf-syntax-ns#type', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://purl.org/dc/elements/1.1/contributor', 'http://purls.helmholtz-metadaten.de/mwo/usesMethod', 'http://purl.obolibrary.org/obo/IAO_0000112', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://www.geneontology.org/formats/oboInOwl#hasDefinition', 'http://www.w3.org/2004/02/skos/core#definition']</t>
+          <t>['http://purl.obolibrary.org/obo/IAO_0000111', 'http://purls.helmholtz-metadaten.de/mwo/hasAcronym', 'http://www.w3.org/2002/07/owl#annotatedSource', 'http://purl.obolibrary.org/obo/IAO_0000600', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://www.w3.org/2004/02/skos/core#prefLabel']</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['rdf:type', 'nfdicore:objectType', 'dc:contributor', 'mwo:usesMethod', 'ns2:IAO_0000112', 'ns2:IAO_0000119', 'mwo:instrumentModel', 'ns4:hasDefinition', 'skos:definition', 'mwo:description', 'dcterms:description']</t>
+          <t>['rdf:type', 'nfdicore:objectType', 'dc:contributor', 'mwo:usesMethod', 'ns2:IAO_0000112', 'ns2:IAO_0000119', 'mwo:instrumentModel', 'mwo:description', 'dcterms:description']</t>
         </is>
       </c>
     </row>
@@ -1501,27 +1501,27 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>['Materials Cloud', 'Materials Commons', 'Materials Project API', 'controlled vocabulary', 'controlled vocabulary']</t>
+          <t>['Materials Cloud', 'Materials Commons', 'Materials Project API', 'controlled vocabulary']</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'http://demo.fiz-karlsruhe.de/matwerk/E1086602', 'http://demo.fiz-karlsruhe.de/matwerk/E547536', 'https://nfdi.fiz-karlsruhe.de/ontology/ControlledVocabulary', 'http://nfdi.fiz-karlsruhe.de/ontology/ControlledVocabulary']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'http://demo.fiz-karlsruhe.de/matwerk/E1086602', 'http://demo.fiz-karlsruhe.de/matwerk/E547536', 'https://nfdi.fiz-karlsruhe.de/ontology/ControlledVocabulary']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>['has conforms to specification', 'belongs to', 'required tool', 'has work package', 'has example of usage', 'has media type or extend', 'uses software', 'has definition source', 'uses technology']</t>
+          <t>['has conforms to specification', 'belongs to', 'required tool', 'has work package', 'has example of usage', 'has media type or extend', 'uses software']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/conformsToSpecification', 'http://purls.helmholtz-metadaten.de/mwo/belongsTo', 'http://purls.helmholtz-metadaten.de/mwo/requiredTool', 'http://purls.helmholtz-metadaten.de/mwo/hasWorkPackage', 'http://purl.obolibrary.org/obo/IAO_0000112', 'http://purl.org/dc/elements/1.1/contributor', 'http://www.ebi.ac.uk/swo/SWO_0000082', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purls.helmholtz-metadaten.de/mwo/usesTechnology']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/hasFormat', 'http://www.ebi.ac.uk/swo/SWO_0000082', 'http://purls.helmholtz-metadaten.de/mwo/hasWebsite', 'https://nfdi.fiz-karlsruhe.de/ontology/example', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://www.w3.org/2002/07/owl#annotatedSource', 'http://purls.helmholtz-metadaten.de/mwo/hasContributor']</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['mwo:conformsToSpecification', 'mwo:belongsTo', 'mwo:requiredTool', 'mwo:hasWorkPackage', 'ns2:IAO_0000112', 'dc:contributor', 'ns3:SWO_0000082', 'ns2:IAO_0000119', 'mwo:usesTechnology', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:conformsToSpecification', 'mwo:belongsTo', 'mwo:requiredTool', 'mwo:hasWorkPackage', 'ns2:IAO_0000112', 'dc:contributor', 'ns3:SWO_0000082', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
     </row>
@@ -1543,27 +1543,27 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>['Bundesanstalt für Materialforschung und -prüfung (BAM)', 'BAM', 'acronym', 'Brunswick', 'bond order potentials (BOP)']</t>
+          <t>['Bundesanstalt für Materialforschung und -prüfung (BAM)', 'BAM', 'acronym', 'bond order potentials (BOP)', 'BAM reference data: results of ASTM E139 -11 creep tests on a reference material of Nimonic 75 nickel-base alloy']</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1247968', 'http://demo.fiz-karlsruhe.de/matwerk/E4571', 'http://purl.obolibrary.org/obo/NCIT_C93495', 'http://www.wikidata.org/entity/Q2773', 'http://demo.fiz-karlsruhe.de/matwerk/E64191']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1247968', 'http://demo.fiz-karlsruhe.de/matwerk/E4571', 'http://purl.obolibrary.org/obo/NCIT_C93495', 'http://demo.fiz-karlsruhe.de/matwerk/E64191', 'http://demo.fiz-karlsruhe.de/matwerk/E1173747']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>['has dataset', 'has definition source', 'has annotated source ', 'related participant project is', 'has related resource', 'has related Project', 'has instrument model', 'has annotated target', 'has repository']</t>
+          <t>['has definition source', 'has annotated source ', 'related participant project is', 'has related resource', 'has related Project', 'has instrument model', 'has annotated target']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['https://nfdi.fiz-karlsruhe.de/ontology/Dataset', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://www.w3.org/2002/07/owl#annotatedSource', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://purls.helmholtz-metadaten.de/mwo/hasRelatedResource', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://www.w3.org/2002/07/owl#annotatedTarget', 'http://purls.helmholtz-metadaten.de/mwo/hasRepository']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://emmo.info/emmo#EMMO_967080e5_2f42_4eb2_a3a9_c58143e835f9', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://purls.helmholtz-metadaten.de/mwo/hasLecturer', 'https://schema.org/dateCreated', 'http://www.w3.org/2004/02/skos/core#prefLabel', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel']</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['nfdicore:Dataset', 'ns2:IAO_0000119', 'owl:annotatedSource', 'mwo:relatedParticipantProject', 'mwo:hasRelatedResource', 'nfdicore:relatedProject', 'mwo:instrumentModel', 'owl:annotatedTarget', 'mwo:hasRepository', 'mwo:description', 'dcterms:description']</t>
+          <t>['ns2:IAO_0000119', 'owl:annotatedSource', 'mwo:relatedParticipantProject', 'mwo:hasRelatedResource', 'nfdicore:relatedProject', 'mwo:instrumentModel', 'owl:annotatedTarget', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
     </row>
@@ -1585,27 +1585,27 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>['mechanics of materials', 'Mechanics of Materials', 'Mathematical description of microstructures', 'Thermodynamics and kinetics of metallic alloys', 'Deformation processes and mechanical behavior']</t>
+          <t>['Mechanics of Materials', 'mechanics of materials', 'Mathematical description of microstructures', 'Thermodynamics and kinetics of metallic alloys']</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E54629', 'http://demo.fiz-karlsruhe.de/matwerk/E52682', 'http://demo.fiz-karlsruhe.de/matwerk/E47972', 'http://demo.fiz-karlsruhe.de/matwerk/E1245980', 'http://demo.fiz-karlsruhe.de/matwerk/E37857']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E52682', 'http://demo.fiz-karlsruhe.de/matwerk/E54629', 'http://demo.fiz-karlsruhe.de/matwerk/E47972', 'http://demo.fiz-karlsruhe.de/matwerk/E1245980']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>['has some values from', 'has related resource', 'all values from', 'has dataset', 'has definition source', 'has example of usage', 'has annotated source ', 'has repository', 'related participant project is']</t>
+          <t>['has some values from', 'has related resource', 'all values from', 'has definition source', 'has example of usage', 'has annotated source ', 'has repository']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['http://www.w3.org/2002/07/owl#someValuesFrom', 'http://purls.helmholtz-metadaten.de/mwo/hasRelatedResource', 'http://www.w3.org/2002/07/owl#allValuesFrom', 'https://nfdi.fiz-karlsruhe.de/ontology/Dataset', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purl.obolibrary.org/obo/IAO_0000112', 'http://www.w3.org/2002/07/owl#annotatedSource', 'http://purls.helmholtz-metadaten.de/mwo/hasRepository', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/hasWorkPackage', 'http://purls.helmholtz-metadaten.de/mwo/hasLecturer', 'http://purls.helmholtz-metadaten.de/mwo/hasPostalCode', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://emmo.info/emmo#EMMO_967080e5_2f42_4eb2_a3a9_c58143e835f9', 'http://purls.helmholtz-metadaten.de/mwo/usesTechnology']</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['owl:someValuesFrom', 'mwo:hasRelatedResource', 'owl:allValuesFrom', 'nfdicore:Dataset', 'ns2:IAO_0000119', 'ns2:IAO_0000112', 'owl:annotatedSource', 'mwo:hasRepository', 'mwo:relatedParticipantProject', 'mwo:description', 'dcterms:description']</t>
+          <t>['owl:someValuesFrom', 'mwo:hasRelatedResource', 'owl:allValuesFrom', 'ns2:IAO_0000119', 'ns2:IAO_0000112', 'owl:annotatedSource', 'mwo:hasRepository', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
     </row>
@@ -1627,27 +1627,27 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>['Transmission electron microscopy', 'X-ray microscopy', 'Confocal microscopy', 'Atom Probe Tomography', 'X-ray imaging']</t>
+          <t>['Transmission electron microscopy', 'X-ray microscopy', 'Confocal microscopy', 'Atom Probe Tomography']</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E625404', 'http://demo.fiz-karlsruhe.de/matwerk/E62777', 'http://demo.fiz-karlsruhe.de/matwerk/E1247596', 'http://demo.fiz-karlsruhe.de/matwerk/E1246872', 'http://demo.fiz-karlsruhe.de/matwerk/E612066']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E625404', 'http://demo.fiz-karlsruhe.de/matwerk/E62777', 'http://demo.fiz-karlsruhe.de/matwerk/E1247596', 'http://demo.fiz-karlsruhe.de/matwerk/E1246872']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>['has dataset', 'has related resource', 'related participant project is', 'has related Project', 'has annotated target', 'has definition source', 'has annotated source ', 'has object type', 'is about material']</t>
+          <t>['has related resource', 'related participant project is', 'has related Project', 'has annotated target', 'has definition source', 'has annotated source ', 'has object type']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['https://nfdi.fiz-karlsruhe.de/ontology/Dataset', 'http://purls.helmholtz-metadaten.de/mwo/hasRelatedResource', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://www.w3.org/2002/07/owl#annotatedTarget', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://www.w3.org/2002/07/owl#annotatedSource', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://purls.helmholtz-metadaten.de/mwo/aboutMaterial']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/hasLecturer', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'https://schema.org/dateCreated', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://emmo.info/emmo#EMMO_967080e5_2f42_4eb2_a3a9_c58143e835f9', 'http://purls.helmholtz-metadaten.de/mwo/hasAcronym']</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['nfdicore:Dataset', 'mwo:hasRelatedResource', 'mwo:relatedParticipantProject', 'nfdicore:relatedProject', 'owl:annotatedTarget', 'ns2:IAO_0000119', 'owl:annotatedSource', 'nfdicore:objectType', 'mwo:aboutMaterial', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:hasRelatedResource', 'mwo:relatedParticipantProject', 'nfdicore:relatedProject', 'owl:annotatedTarget', 'ns2:IAO_0000119', 'owl:annotatedSource', 'nfdicore:objectType', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
     </row>
@@ -1669,27 +1669,27 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>['Elastic Constant Demo Data', 'Elastic Constant Demo', 'NeXus Data Format', 'semantic resource', 'hardness data']</t>
+          <t>['Elastic Constant Demo Data', 'Elastic Constant Demo', 'NeXus Data Format', 'semantic resource']</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1247418', 'http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'http://demo.fiz-karlsruhe.de/matwerk/E1160004', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'http://demo.fiz-karlsruhe.de/matwerk/E1213904']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1247418', 'http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'http://demo.fiz-karlsruhe.de/matwerk/E1160004', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>['has license', 'has license', 'has affiliation', 'has file Extension', 'has specification label', 'has specification label', 'has documentation', 'has postal code', 'has software']</t>
+          <t>['has license', 'has license', 'has affiliation', 'has file Extension', 'has specification label', 'has specification label', 'has documentation']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['http://www.ebi.ac.uk/swo/has_license', 'http://purl.org/dc/terms/license', 'http://purls.helmholtz-metadaten.de/mwo/hasAffiliation', 'http://nfdi.fiz-karlsruhe.de/ontology/fileExtension', 'http://purl.obolibrary.org/obo/BFO_0000179', 'http://purl.obolibrary.org/obo/BFO_0000180', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'http://purls.helmholtz-metadaten.de/mwo/hasPostalCode', 'https://nfdi.fiz-karlsruhe.de/ontology/Software']</t>
+          <t>['http://purl.org/dc/terms/format', 'http://www.w3.org/2002/07/owl#annotatedProperty', 'http://purls.helmholtz-metadaten.de/mwo/isOnline', 'http://purl.obolibrary.org/obo/IAO_0000118', 'http://purls.helmholtz-metadaten.de/mwo/requiredTool', 'http://www.w3.org/2002/07/owl#unionOf', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration']</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['ns3:has_license', 'dcterms:license', 'mwo:hasAffiliation', 'nfdicore:fileExtension', 'ns2:BFO_0000179', 'ns2:BFO_0000180', 'mwo:hasDocumentation', 'mwo:hasPostalCode', 'nfdicore:Software', 'mwo:description', 'dcterms:description']</t>
+          <t>['dcterms:license', 'ns3:has_license', 'mwo:hasAffiliation', 'nfdicore:fileExtension', 'ns2:BFO_0000179', 'ns2:BFO_0000180', 'mwo:hasDocumentation', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
     </row>
@@ -1711,27 +1711,27 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>['hardness data', 'educational resource', 'Carolina Materials Database', 'semantic resource', 'Research data infrastructure', 'BAM reference data: results of ASTM E139 -11 creep tests on a reference material of Nimonic 75 nickel-base alloy']</t>
+          <t>['hardness data', 'educational resource', 'Carolina Materials Database', 'semantic resource', 'BAM reference data: results of ASTM E139 -11 creep tests on a reference material of Nimonic 75 nickel-base alloy']</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource', 'http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'http://demo.fiz-karlsruhe.de/matwerk/E66342', 'http://demo.fiz-karlsruhe.de/matwerk/E1173747']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource', 'http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'http://demo.fiz-karlsruhe.de/matwerk/E1173747']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>['has repository', 'has annotated source ', 'has definition source', 'has documentation', 'has file Extension', 'has bibliographic citation', 'has annotated property', 'has related resource', 'has dataset']</t>
+          <t>['has repository', 'has annotated source ', 'has definition source', 'has documentation', 'has file Extension', 'has bibliographic citation', 'has annotated property']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/hasRepository', 'http://www.w3.org/2002/07/owl#annotatedSource', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'http://nfdi.fiz-karlsruhe.de/ontology/fileExtension', 'http://purl.org/dc/terms/bibliographicCitation', 'http://www.w3.org/2002/07/owl#annotatedProperty', 'http://purls.helmholtz-metadaten.de/mwo/hasRelatedResource', 'https://nfdi.fiz-karlsruhe.de/ontology/Dataset']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/usesTechnology', 'http://emmo.info/emmo#EMMO_967080e5_2f42_4eb2_a3a9_c58143e835f9', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'http://purl.obolibrary.org/obo/IAO_0000118', 'http://www.w3.org/2002/07/owl#sameAs', 'http://www.geneontology.org/formats/oboInOwl#hasDbXref']</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['mwo:hasRepository', 'owl:annotatedSource', 'ns2:IAO_0000119', 'mwo:hasDocumentation', 'nfdicore:fileExtension', 'dcterms:bibliographicCitation', 'owl:annotatedProperty', 'mwo:hasRelatedResource', 'nfdicore:Dataset', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:hasRepository', 'owl:annotatedSource', 'ns2:IAO_0000119', 'mwo:hasDocumentation', 'nfdicore:fileExtension', 'dcterms:bibliographicCitation', 'owl:annotatedProperty', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
     </row>
@@ -1753,27 +1753,27 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>['hardness data', 'educational resource', 'Carolina Materials Database', 'semantic resource', 'Research data infrastructure', 'BAM reference data: results of ASTM E139 -11 creep tests on a reference material of Nimonic 75 nickel-base alloy']</t>
+          <t>['hardness data', 'educational resource', 'Carolina Materials Database', 'semantic resource', 'BAM reference data: results of ASTM E139 -11 creep tests on a reference material of Nimonic 75 nickel-base alloy']</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource', 'http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'http://demo.fiz-karlsruhe.de/matwerk/E66342', 'http://demo.fiz-karlsruhe.de/matwerk/E1173747']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource', 'http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'http://demo.fiz-karlsruhe.de/matwerk/E1173747']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>['has dataset', 'has format', 'has format', 'has documentation', 'has repository', 'has file Extension', 'has related resource', 'has instrument model', 'has software']</t>
+          <t>['has format', 'has format', 'has documentation', 'has repository', 'has file Extension', 'has related resource', 'has instrument model']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['https://nfdi.fiz-karlsruhe.de/ontology/Dataset', 'http://purl.org/dc/terms/format', 'http://purls.helmholtz-metadaten.de/mwo/hasFormat', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'http://purls.helmholtz-metadaten.de/mwo/hasRepository', 'http://nfdi.fiz-karlsruhe.de/ontology/fileExtension', 'http://purls.helmholtz-metadaten.de/mwo/hasRelatedResource', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'https://nfdi.fiz-karlsruhe.de/ontology/Software']</t>
+          <t>['http://www.ebi.ac.uk/swo/has_license', 'http://purls.helmholtz-metadaten.de/mwo/hasAuthor', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'http://purls.helmholtz-metadaten.de/mwo/usesTechnology', 'http://purl.obolibrary.org/obo/IAO_0000118', 'http://purls.helmholtz-metadaten.de/mwo/hasLecturer', 'http://www.w3.org/2004/02/skos/core#prefLabel']</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['nfdicore:Dataset', 'dcterms:format', 'mwo:hasFormat', 'mwo:hasDocumentation', 'mwo:hasRepository', 'nfdicore:fileExtension', 'mwo:hasRelatedResource', 'mwo:instrumentModel', 'nfdicore:Software', 'mwo:description', 'dcterms:description']</t>
+          <t>['dcterms:format', 'mwo:hasFormat', 'mwo:hasDocumentation', 'mwo:hasRepository', 'nfdicore:fileExtension', 'mwo:hasRelatedResource', 'mwo:instrumentModel', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
     </row>
@@ -1795,27 +1795,27 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>['pacemaker', 'Atomman', 'matador', 'Plant movement', 'electronic lab notebook', 'https://pacemaker.readthedocs.io/en/latest/']</t>
+          <t>['pacemaker', 'Atomman', 'matador', 'Plant movement']</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E511556', 'http://demo.fiz-karlsruhe.de/matwerk/E531966', 'http://demo.fiz-karlsruhe.de/matwerk/E577202', 'http://demo.fiz-karlsruhe.de/matwerk/E46754', 'http://purls.helmholtz-metadaten.de/mwo/ElectronicLabNotebook', 'http://demo.fiz-karlsruhe.de/matwerk/E275912']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E511556', 'http://demo.fiz-karlsruhe.de/matwerk/E531966', 'http://demo.fiz-karlsruhe.de/matwerk/E577202', 'http://demo.fiz-karlsruhe.de/matwerk/E46754']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>['has software', 'has Version', 'uses software', 'has instrument model', 'has format', 'has format', 'has specification label', 'has specification label', 'has programming Language ']</t>
+          <t>['has Version', 'uses software', 'has instrument model', 'has format', 'has format', 'has specification label', 'has specification label']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['https://nfdi.fiz-karlsruhe.de/ontology/Software', 'http://purls.helmholtz-metadaten.de/mwo/hasVersion', 'http://www.ebi.ac.uk/swo/SWO_0000082', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://purl.org/dc/terms/format', 'http://purls.helmholtz-metadaten.de/mwo/hasFormat', 'http://purl.obolibrary.org/obo/BFO_0000179', 'http://purl.obolibrary.org/obo/BFO_0000180', 'http://nfdi.fiz-karlsruhe.de/ontology/programmingLanguage']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/keyword', 'http://purls.helmholtz-metadaten.de/mwo/hasContributor', 'http://www.w3.org/2004/02/skos/core#prefLabel', 'http://www.ebi.ac.uk/swo/has_license', 'http://purls.helmholtz-metadaten.de/mwo/hasAuthor', 'http://purls.helmholtz-metadaten.de/mwo/requiredTool', 'http://www.w3.org/2002/07/owl#unionOf']</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['nfdicore:Software', 'mwo:hasVersion', 'ns3:SWO_0000082', 'mwo:instrumentModel', 'dcterms:format', 'mwo:hasFormat', 'ns2:BFO_0000179', 'ns2:BFO_0000180', 'nfdicore:programmingLanguage', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:hasVersion', 'ns3:SWO_0000082', 'mwo:instrumentModel', 'dcterms:format', 'mwo:hasFormat', 'ns2:BFO_0000179', 'ns2:BFO_0000180', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
     </row>
@@ -1837,27 +1837,27 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>['hardness data', 'educational resource', 'Carolina Materials Database', 'semantic resource', 'Research data infrastructure', 'BAM reference data: results of ASTM E139 -11 creep tests on a reference material of Nimonic 75 nickel-base alloy']</t>
+          <t>['hardness data', 'educational resource', 'Carolina Materials Database', 'semantic resource', 'BAM reference data: results of ASTM E139 -11 creep tests on a reference material of Nimonic 75 nickel-base alloy']</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource', 'http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'http://demo.fiz-karlsruhe.de/matwerk/E66342', 'http://demo.fiz-karlsruhe.de/matwerk/E1173747']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource', 'http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'http://demo.fiz-karlsruhe.de/matwerk/E1173747']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>['has related task area', 'has discipline', 'has main task area ', 'has first element', 'related participant project is', 'has expertise in', 'has ontology', 'has related Project', 'has contact point']</t>
+          <t>['has related task area', 'has discipline', 'has main task area ', 'has first element', 'related participant project is', 'has expertise in', 'has related Project']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/relatedTaskArea', 'http://purls.helmholtz-metadaten.de/mwo/hasDiscipline', 'http://purls.helmholtz-metadaten.de/mwo/mainTaskArea', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#first', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://purls.helmholtz-metadaten.de/mwo/hasExpertiseIn', 'https://nfdi.fiz-karlsruhe.de/ontology/Ontology', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/belongsTo', 'http://purl.org/dc/terms/isPartOf', 'http://purl.org/dc/elements/1.1/contributor', 'http://xmlns.com/foaf/0.1/depiction', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://purls.helmholtz-metadaten.de/mwo/description', 'https://schema.org/dateCreated']</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['mwo:relatedTaskArea', 'mwo:hasDiscipline', 'mwo:mainTaskArea', 'rdf:first', 'mwo:relatedParticipantProject', 'mwo:hasExpertiseIn', 'nfdicore:Ontology', 'nfdicore:relatedProject', 'mwo:hasContactPoint', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:relatedTaskArea', 'mwo:hasDiscipline', 'mwo:mainTaskArea', 'rdf:first', 'mwo:relatedParticipantProject', 'mwo:hasExpertiseIn', 'nfdicore:relatedProject', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
     </row>
@@ -1879,27 +1879,27 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>['hardness data', 'educational resource', 'Carolina Materials Database', 'semantic resource', 'Research data infrastructure', 'BAM reference data: results of ASTM E139 -11 creep tests on a reference material of Nimonic 75 nickel-base alloy']</t>
+          <t>['hardness data', 'educational resource', 'Carolina Materials Database', 'semantic resource', 'BAM reference data: results of ASTM E139 -11 creep tests on a reference material of Nimonic 75 nickel-base alloy']</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource', 'http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'http://demo.fiz-karlsruhe.de/matwerk/E66342', 'http://demo.fiz-karlsruhe.de/matwerk/E1173747']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource', 'http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'http://demo.fiz-karlsruhe.de/matwerk/E1173747']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>['has  description', 'has description', 'has bibliographic citation', 'has definition', 'has definition', 'has documentation', 'has citation', 'has definition source', 'has elucidation']</t>
+          <t>['has  description', 'has description', 'has bibliographic citation', 'has definition', 'has definition', 'has documentation', 'has citation']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['http://purl.org/dc/terms/description', 'http://purls.helmholtz-metadaten.de/mwo/description', 'http://purl.org/dc/terms/bibliographicCitation', 'http://www.geneontology.org/formats/oboInOwl#hasDefinition', 'http://www.w3.org/2004/02/skos/core#definition', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'https://schema.org/citation', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purl.obolibrary.org/obo/IAO_0000600']</t>
+          <t>['http://purl.obolibrary.org/obo/IAO_0000115', 'http://www.w3.org/2002/07/owl#onProperty', 'http://www.w3.org/2002/07/owl#sameAs', 'http://xmlns.com/foaf/0.1/firstName', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#type', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#rest']</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['dcterms:description', 'mwo:description', 'dcterms:bibliographicCitation', 'ns4:hasDefinition', 'skos:definition', 'mwo:hasDocumentation', 'schema:citation', 'ns2:IAO_0000119', 'ns2:IAO_0000600']</t>
+          <t>['dcterms:description', 'mwo:description', 'dcterms:bibliographicCitation', 'ns4:hasDefinition', 'skos:definition', 'mwo:hasDocumentation', 'schema:citation', 'rdf:type']</t>
         </is>
       </c>
     </row>
@@ -1921,27 +1921,27 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>['De Geest, P., Droesbeke, B., Eguinoa, I., Gaignard, A., Huber, S., Leo, S., Pireddu, L., Rodríguez-Navas, L., Sirvent, R., &amp; Soiland-Reyes, S. (2022). ro-crate-py (Version 0.7.0) [Computer software]. https://doi.org/10.5281/zenodo.3956493', 'Bochkarev, A., Lysogorskiy, Y., Menon, S., Qamar, M., Mrovec, M., &amp; Drautz, R. (2022). Efficient parametrization of the atomic cluster expansion. Physical Review Materials, 6(1), 013804_x000D_\nLysogorskiy, Y., Oord, C. V. D., Bochkarev, A., Menon, S., Rinaldi, M., Hammerschmidt, T., ... &amp; Drautz, R. (2021). Performant implementation of the atomic cluster expansion (PACE) and application to copper and silicon. npj Computational Materials, 7(1), 1-12', 'The Abinit project: Impact, environment and recent developments Comput. Phys. Commun. 248, 107042 (2020) URL: https://doi.org/10.1016/j.cpc.2019.107042; ABINIT: Overview, and focus on selected capabilities J. Chem. Phys. 152, 124102 (2020)', 'Machine-learning predictions of polymer properties with Polymer Genome\nH. D. Tran, C. Kim, L. Chen, A. Chandrasekaran, R. Batra, S. Venkatram, D. Kamal, J. P. Lightstone, R. Gurnani, P. Shetty, M. Ramprasad, J. Laws, M. Shelton, R. Ramprasad, J. Appl. Phys., 128, 171104 (2020).\n\nPolymer Genome: A data-powered polymer informatics platform for property predictions\nC. Kim, A. Chandrasekaran, T. D. Huan, D. Das, R. Ramprasad, J. Phys. Chem. C 122, 31, 17575-17585 (2018).\n\nA polymer dataset for accelerated property prediction and design\nT. D. Huan, A. Mannodi-Kanakkithodi, C. Kim, V. Sharma, G. Pilania, R. Ramprasad, Sci. Data, 3 160012 (2016).', 'J. Magnus Rahm and Paul Erhart WulffPack: A Python package for Wulff constructions J. Open Source Softw. 5, 1944 (2020) doi: 10.21105/joss.01944', 'Topological Quantum Chemistry Nature 547, 298—305 (2017) A Complete Catalogue of High-Quality Topological Materials Nature 566, 480-485 (2019) All Topological Bands of all Nonmagnetic Stoichiometric Materials Science 376, 6595 (2022)']</t>
+          <t>['Bochkarev, A., Lysogorskiy, Y., Menon, S., Qamar, M., Mrovec, M., &amp; Drautz, R. (2022). Efficient parametrization of the atomic cluster expansion. Physical Review Materials, 6(1), 013804\r\nLysogorskiy, Y., Oord, C. V. D., Bochkarev, A., Menon, S., Rinaldi, M., Hammerschmidt, T., ... &amp; Drautz, R. (2021). Performant implementation of the atomic cluster expansion (PACE) and application to copper and silicon. npj Computational Materials, 7(1), 1-12', 'De Geest, P., Droesbeke, B., Eguinoa, I., Gaignard, A., Huber, S., Leo, S., Pireddu, L., Rodríguez-Navas, L., Sirvent, R., &amp; Soiland-Reyes, S. (2022). ro-crate-py (Version 0.7.0) [Computer software]. https://doi.org/10.5281/zenodo.3956493', 'Dunn, A., Wang, Q., Ganose, A., Dopp, D., Jain, A. Benchmarking Materials Property Prediction Methods: The Matbench Test Set and Automatminer Reference Algorithm. npj  Computational Materials 6, 138 (2020). https://doi.org/10.1038/s41524-020-00406-3', 'J. Magnus Rahm and Paul Erhart WulffPack: A Python package for Wulff constructions J. Open Source Softw. 5, 1944 (2020) doi: 10.21105/joss.01944']</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E964967', 'http://demo.fiz-karlsruhe.de/matwerk/E945626', 'http://demo.fiz-karlsruhe.de/matwerk/E892781', 'http://demo.fiz-karlsruhe.de/matwerk/E985907', 'http://demo.fiz-karlsruhe.de/matwerk/E941507', 'http://demo.fiz-karlsruhe.de/matwerk/E990122']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E945626', 'http://demo.fiz-karlsruhe.de/matwerk/E964967', 'http://demo.fiz-karlsruhe.de/matwerk/E937397', 'http://demo.fiz-karlsruhe.de/matwerk/E941507']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>['has dataset', 'has definition source', 'has annotated source ', 'related participant project is', 'has related resource', 'has related Project', 'has instrument model', 'has annotated target', 'has repository']</t>
+          <t>['has definition source', 'has annotated source ', 'related participant project is', 'has related resource', 'has related Project', 'has instrument model', 'has annotated target']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['https://nfdi.fiz-karlsruhe.de/ontology/Dataset', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://www.w3.org/2002/07/owl#annotatedSource', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://purls.helmholtz-metadaten.de/mwo/hasRelatedResource', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://www.w3.org/2002/07/owl#annotatedTarget', 'http://purls.helmholtz-metadaten.de/mwo/hasRepository']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://emmo.info/emmo#EMMO_967080e5_2f42_4eb2_a3a9_c58143e835f9', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://purls.helmholtz-metadaten.de/mwo/hasLecturer', 'https://schema.org/dateCreated', 'http://www.w3.org/2004/02/skos/core#prefLabel', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel']</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['nfdicore:Dataset', 'ns2:IAO_0000119', 'owl:annotatedSource', 'mwo:relatedParticipantProject', 'mwo:hasRelatedResource', 'nfdicore:relatedProject', 'mwo:instrumentModel', 'owl:annotatedTarget', 'mwo:hasRepository', 'mwo:description', 'dcterms:description']</t>
+          <t>['ns2:IAO_0000119', 'owl:annotatedSource', 'mwo:relatedParticipantProject', 'mwo:hasRelatedResource', 'nfdicore:relatedProject', 'mwo:instrumentModel', 'owl:annotatedTarget', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
     </row>
@@ -1963,27 +1963,27 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>['hardness data', 'educational resource', 'Carolina Materials Database', 'semantic resource', 'Research data infrastructure', 'BAM reference data: results of ASTM E139 -11 creep tests on a reference material of Nimonic 75 nickel-base alloy']</t>
+          <t>['hardness data', 'educational resource', 'Carolina Materials Database', 'semantic resource', 'BAM reference data: results of ASTM E139 -11 creep tests on a reference material of Nimonic 75 nickel-base alloy']</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource', 'http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'http://demo.fiz-karlsruhe.de/matwerk/E66342', 'http://demo.fiz-karlsruhe.de/matwerk/E1173747']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource', 'http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'http://demo.fiz-karlsruhe.de/matwerk/E1173747']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>['has creator', 'has author', 'has contributor', 'uses software', 'uses technology', 'has annotated source ', 'has programming Language ', 'has definition source', 'has owner']</t>
+          <t>['has creator', 'has author', 'has contributor', 'uses software', 'uses technology', 'has annotated source ', 'has programming Language ']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/hasCreator', 'http://purls.helmholtz-metadaten.de/mwo/hasAuthor', 'http://purls.helmholtz-metadaten.de/mwo/hasContributor', 'http://www.ebi.ac.uk/swo/SWO_0000082', 'http://purls.helmholtz-metadaten.de/mwo/usesTechnology', 'http://www.w3.org/2002/07/owl#annotatedSource', 'http://nfdi.fiz-karlsruhe.de/ontology/programmingLanguage', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purls.helmholtz-metadaten.de/mwo/hasOwner']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/hasAffiliation', 'http://nfdi.fiz-karlsruhe.de/ontology/semanticExpressivity', 'http://www.geneontology.org/formats/oboInOwl#hasBroadSynonym', 'http://purls.helmholtz-metadaten.de/mwo/hasContributor', 'http://purls.helmholtz-metadaten.de/mwo/conformsToSpecification', 'http://emmo.info/emmo#EMMO_967080e5_2f42_4eb2_a3a9_c58143e835f9', 'http://purl.obolibrary.org/obo/IAO_0000117']</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['mwo:hasCreator', 'mwo:hasAuthor', 'mwo:hasContributor', 'ns3:SWO_0000082', 'mwo:usesTechnology', 'owl:annotatedSource', 'nfdicore:programmingLanguage', 'ns2:IAO_0000119', 'mwo:hasOwner', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:hasCreator', 'mwo:hasAuthor', 'mwo:hasContributor', 'ns3:SWO_0000082', 'mwo:usesTechnology', 'owl:annotatedSource', 'nfdicore:programmingLanguage', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
     </row>
@@ -2005,258 +2005,31 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>['Bundesanstalt für Materialforschung und -prüfung (BAM)', 'BAM', 'acronym', 'Brunswick', 'bond order potentials (BOP)']</t>
+          <t>['Bundesanstalt für Materialforschung und -prüfung (BAM)', 'BAM', 'acronym', 'bond order potentials (BOP)', 'BAM reference data: results of ASTM E139 -11 creep tests on a reference material of Nimonic 75 nickel-base alloy']</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1247968', 'http://demo.fiz-karlsruhe.de/matwerk/E4571', 'http://purl.obolibrary.org/obo/NCIT_C93495', 'http://www.wikidata.org/entity/Q2773', 'http://demo.fiz-karlsruhe.de/matwerk/E64191']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1247968', 'http://demo.fiz-karlsruhe.de/matwerk/E4571', 'http://purl.obolibrary.org/obo/NCIT_C93495', 'http://demo.fiz-karlsruhe.de/matwerk/E64191', 'http://demo.fiz-karlsruhe.de/matwerk/E1173747']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>['has dataset', 'has repository', 'has bibliographic citation', 'has documentation', 'has annotated source ', 'related participant project is', 'has annotated target', 'has date Published', 'has related resource']</t>
+          <t>['has repository', 'has bibliographic citation', 'has documentation', 'has annotated source ', 'related participant project is', 'has annotated target', 'has date Published']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['https://nfdi.fiz-karlsruhe.de/ontology/Dataset', 'http://purls.helmholtz-metadaten.de/mwo/hasRepository', 'http://purl.org/dc/terms/bibliographicCitation', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'http://www.w3.org/2002/07/owl#annotatedSource', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://www.w3.org/2002/07/owl#annotatedTarget', 'https://schema.org/datePublished', 'http://purls.helmholtz-metadaten.de/mwo/hasRelatedResource']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/usesTechnology', 'http://www.w3.org/2002/07/owl#sameAs', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'http://emmo.info/emmo#EMMO_967080e5_2f42_4eb2_a3a9_c58143e835f9', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://www.w3.org/2002/07/owl#equivalentClass']</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['nfdicore:Dataset', 'mwo:hasRepository', 'dcterms:bibliographicCitation', 'mwo:hasDocumentation', 'owl:annotatedSource', 'mwo:relatedParticipantProject', 'owl:annotatedTarget', 'schema:datePublished', 'mwo:hasRelatedResource', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:hasRepository', 'dcterms:bibliographicCitation', 'mwo:hasDocumentation', 'owl:annotatedSource', 'mwo:relatedParticipantProject', 'owl:annotatedTarget', 'schema:datePublished', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4093E08A2E8D84C9AA963E02FD99654" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="84c502d4503dea49fce9d134f7dcc9af">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c09d107b-18dc-489c-bc6f-5ed48cc8c44a" xmlns:ns3="e2225dd1-523d-4404-be3e-841da2544242" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b8dc0315bcb7427c92a75c96c81d9d2" ns2:_="" ns3:_="">
-    <xsd:import namespace="c09d107b-18dc-489c-bc6f-5ed48cc8c44a"/>
-    <xsd:import namespace="e2225dd1-523d-4404-be3e-841da2544242"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c09d107b-18dc-489c-bc6f-5ed48cc8c44a" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="11" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="89a75c37-6363-466b-83d7-1b9f4a918caf" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e2225dd1-523d-4404-be3e-841da2544242" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{3a3b5da6-65bc-40f7-ae0d-c52f7365e2ec}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="e2225dd1-523d-4404-be3e-841da2544242">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c09d107b-18dc-489c-bc6f-5ed48cc8c44a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e2225dd1-523d-4404-be3e-841da2544242" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32BF5C02-B3D6-4FBF-A98A-A0DA68EDD146}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C383F21-7C89-48C6-95C6-7BE7B0898F9B}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7F6F3CB-DD6F-4B8C-856B-D1C513BE2972}"/>
 </file>